--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value567.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value567.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.5866329654059899</v>
+        <v>0.9677245616912842</v>
       </c>
       <c r="B1">
-        <v>1.751750469392922</v>
+        <v>1.309038758277893</v>
       </c>
       <c r="C1">
-        <v>2.89525873016467</v>
+        <v>2.202776193618774</v>
       </c>
       <c r="D1">
-        <v>2.55410606912548</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>1.183202045432722</v>
+        <v>1.97918975353241</v>
       </c>
     </row>
   </sheetData>
